--- a/city names and coordinates.xlsx
+++ b/city names and coordinates.xlsx
@@ -1,34 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwatson\Documents\R\greenville\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C4B4DF-6DAF-42B7-9038-A954400029AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="30" windowWidth="19140" windowHeight="9525"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" r:id="rId1"/>
-    <sheet name="greenville" sheetId="2" r:id="rId2"/>
-    <sheet name="springfield" sheetId="3" r:id="rId3"/>
-    <sheet name="washington" sheetId="4" r:id="rId4"/>
-    <sheet name="franklin" sheetId="5" r:id="rId5"/>
-    <sheet name="sources" sheetId="6" r:id="rId6"/>
+    <sheet name="sources" sheetId="6" r:id="rId1"/>
+    <sheet name="summary" sheetId="1" r:id="rId2"/>
+    <sheet name="greenville" sheetId="2" r:id="rId3"/>
+    <sheet name="springfield" sheetId="3" r:id="rId4"/>
+    <sheet name="washington" sheetId="4" r:id="rId5"/>
+    <sheet name="franklin" sheetId="5" r:id="rId6"/>
+    <sheet name="arlington" sheetId="7" r:id="rId7"/>
+    <sheet name="centerville" sheetId="8" r:id="rId8"/>
+    <sheet name="clinton" sheetId="9" r:id="rId9"/>
+    <sheet name="georgetown" sheetId="10" r:id="rId10"/>
+    <sheet name="Fairview" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">summary!$C$1:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">summary!$C$1:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="386">
   <si>
     <t>Greenville, California</t>
   </si>
@@ -336,9 +349,6 @@
     <t>Washington Grove, Maryland</t>
   </si>
   <si>
-    <t>Mount Washington, Baltimore City, Maryland</t>
-  </si>
-  <si>
     <t>neighborhood</t>
   </si>
   <si>
@@ -691,12 +701,510 @@
   </si>
   <si>
     <t>MD</t>
+  </si>
+  <si>
+    <t>Arlington, Alabama</t>
+  </si>
+  <si>
+    <t>Arlington, Arizona</t>
+  </si>
+  <si>
+    <t>Arlington, California</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>Arlington, Colorado</t>
+  </si>
+  <si>
+    <t>Arlington, Georgia</t>
+  </si>
+  <si>
+    <t>Arlington Heights, Illinois</t>
+  </si>
+  <si>
+    <t>Arlington, Monroe County, Indiana</t>
+  </si>
+  <si>
+    <t>Arlington, Rush County, Indiana</t>
+  </si>
+  <si>
+    <t>Arlington, Iowa</t>
+  </si>
+  <si>
+    <t>Arlington, Kansas</t>
+  </si>
+  <si>
+    <t>Arlington, Kentucky</t>
+  </si>
+  <si>
+    <t>Arlington, Massachusetts</t>
+  </si>
+  <si>
+    <t>Arlington Township, Michigan</t>
+  </si>
+  <si>
+    <t>civil township</t>
+  </si>
+  <si>
+    <t>Arlington, Minnesota</t>
+  </si>
+  <si>
+    <t>Arlington, Missouri</t>
+  </si>
+  <si>
+    <t>Arlington, Nebraska</t>
+  </si>
+  <si>
+    <t>Arlington, New Jersey</t>
+  </si>
+  <si>
+    <t>Arlington, New York</t>
+  </si>
+  <si>
+    <t>Arlington, Staten Island, New York</t>
+  </si>
+  <si>
+    <t>Arlington, North Carolina</t>
+  </si>
+  <si>
+    <t>Arlington, Ohio</t>
+  </si>
+  <si>
+    <t>Arlington, Montgomery County, Ohio</t>
+  </si>
+  <si>
+    <t>Arlington, Oregon</t>
+  </si>
+  <si>
+    <t>Arlington, South Dakota</t>
+  </si>
+  <si>
+    <t>Arlington, Tennessee</t>
+  </si>
+  <si>
+    <t>Arlington, Texas</t>
+  </si>
+  <si>
+    <t>Arlington, Vermont</t>
+  </si>
+  <si>
+    <t>Arlington County, Virginia</t>
+  </si>
+  <si>
+    <t>urban county</t>
+  </si>
+  <si>
+    <t>Arlington, Northampton County, Virginia</t>
+  </si>
+  <si>
+    <t>Arlington, Washington</t>
+  </si>
+  <si>
+    <t>Arlington, Harrison County, West Virginia</t>
+  </si>
+  <si>
+    <t>Arlington, Upshur County, West Virginia</t>
+  </si>
+  <si>
+    <t>Arlington (town), Wisconsin</t>
+  </si>
+  <si>
+    <t>Arlington, Wisconsin</t>
+  </si>
+  <si>
+    <t>Arlington, Wyoming</t>
+  </si>
+  <si>
+    <t>Centreville, Illinois</t>
+  </si>
+  <si>
+    <t>Centerville, White County, Illinois</t>
+  </si>
+  <si>
+    <t>Centerville, Washington County, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Centerville, Washington</t>
+  </si>
+  <si>
+    <t>Centerville, Virginia</t>
+  </si>
+  <si>
+    <t>Centerville, Vermont</t>
+  </si>
+  <si>
+    <t>unincorporated</t>
+  </si>
+  <si>
+    <t>Centerville, Utah</t>
+  </si>
+  <si>
+    <t>Centerville, Trempealeau County, Wisconsin</t>
+  </si>
+  <si>
+    <t>Centerville, Texas</t>
+  </si>
+  <si>
+    <t>Centerville, Tennessee</t>
+  </si>
+  <si>
+    <t>Centerville, St. Croix County, Wisconsin</t>
+  </si>
+  <si>
+    <t>Centerville, South Dakota</t>
+  </si>
+  <si>
+    <t>Centerville, South Carolina</t>
+  </si>
+  <si>
+    <t>Centerville, Piatt County, Illinois</t>
+  </si>
+  <si>
+    <t>Centerville, North Carolina</t>
+  </si>
+  <si>
+    <t>Centerville, Morgan County, Illinois</t>
+  </si>
+  <si>
+    <t>Centerville, Montgomery County, Ohio</t>
+  </si>
+  <si>
+    <t>Centerville, Missouri</t>
+  </si>
+  <si>
+    <t>Centerville, Minnesota</t>
+  </si>
+  <si>
+    <t>Centerville, Massachusetts</t>
+  </si>
+  <si>
+    <t>Centerville, Manitowoc County, Wisconsin</t>
+  </si>
+  <si>
+    <t>Centerville, Macoupin County, Illinois</t>
+  </si>
+  <si>
+    <t>Centerville, Knox County, Illinois</t>
+  </si>
+  <si>
+    <t>Centerville, Kansas</t>
+  </si>
+  <si>
+    <t>Centerville, Iowa</t>
+  </si>
+  <si>
+    <t>Centerville, Indiana</t>
+  </si>
+  <si>
+    <t>Centerville, Grant County, Wisconsin</t>
+  </si>
+  <si>
+    <t>Centerville, Georgia</t>
+  </si>
+  <si>
+    <t>Centerville, Gallia County, Ohio</t>
+  </si>
+  <si>
+    <t>Centerville, Delaware</t>
+  </si>
+  <si>
+    <t>Centerville, Crawford County, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Centerville, Calhoun County, Illinois</t>
+  </si>
+  <si>
+    <t>Centerville, Bourbon County, Kentucky</t>
+  </si>
+  <si>
+    <t>Clinton, Arkansas</t>
+  </si>
+  <si>
+    <t>Clinton, Connecticut</t>
+  </si>
+  <si>
+    <t>Clinton, Illinois</t>
+  </si>
+  <si>
+    <t>Clinton, Indiana</t>
+  </si>
+  <si>
+    <t>Clinton, Iowa</t>
+  </si>
+  <si>
+    <t>Clinton, Kentucky</t>
+  </si>
+  <si>
+    <t>Clinton, Louisiana</t>
+  </si>
+  <si>
+    <t>Clinton, Maine</t>
+  </si>
+  <si>
+    <t>Clinton, Maryland</t>
+  </si>
+  <si>
+    <t>Clinton, Massachusetts</t>
+  </si>
+  <si>
+    <t>Clinton Township, Macomb County, Michigan</t>
+  </si>
+  <si>
+    <t>charter township and CDP</t>
+  </si>
+  <si>
+    <t>Clinton, Lenawee County, Michigan</t>
+  </si>
+  <si>
+    <t>Clinton, Minnesota</t>
+  </si>
+  <si>
+    <t>Clinton, Mississippi</t>
+  </si>
+  <si>
+    <t>Clinton, Missouri</t>
+  </si>
+  <si>
+    <t>Clinton, Montana</t>
+  </si>
+  <si>
+    <t>Clinton, Nebraska</t>
+  </si>
+  <si>
+    <t>Clinton, New Jersey</t>
+  </si>
+  <si>
+    <t>Clinton, Clinton County, New York</t>
+  </si>
+  <si>
+    <t>Clinton, Dutchess County, New York</t>
+  </si>
+  <si>
+    <t>Clinton, Oneida County, New York</t>
+  </si>
+  <si>
+    <t>Clinton, North Carolina</t>
+  </si>
+  <si>
+    <t>Clinton, Ohio</t>
+  </si>
+  <si>
+    <t>Port Clinton, Ohio</t>
+  </si>
+  <si>
+    <t>Clinton, Oklahoma</t>
+  </si>
+  <si>
+    <t>Clinton, South Carolina</t>
+  </si>
+  <si>
+    <t>Clinton, Tennessee</t>
+  </si>
+  <si>
+    <t>Clinton, Utah</t>
+  </si>
+  <si>
+    <t>Clinton, Washington</t>
+  </si>
+  <si>
+    <t>Clinton, Wisconsin</t>
+  </si>
+  <si>
+    <t>Georgetown, Arkansas</t>
+  </si>
+  <si>
+    <t>Georgetown, California</t>
+  </si>
+  <si>
+    <t>Georgetown, Colorado</t>
+  </si>
+  <si>
+    <t>Georgetown, Connecticut</t>
+  </si>
+  <si>
+    <t>Georgetown, Delaware</t>
+  </si>
+  <si>
+    <t>Georgetown, Chatham County, Georgia</t>
+  </si>
+  <si>
+    <t>Georgetown, Quitman County, Georgia</t>
+  </si>
+  <si>
+    <t>Georgetown, Idaho</t>
+  </si>
+  <si>
+    <t>Georgetown, Illinois</t>
+  </si>
+  <si>
+    <t>Georgetown, Allen County, Indiana</t>
+  </si>
+  <si>
+    <t>Georgetown, Cass County, Indiana</t>
+  </si>
+  <si>
+    <t>Georgetown, Floyd County, Indiana</t>
+  </si>
+  <si>
+    <t>Georgetown, St. Joseph County, Indiana</t>
+  </si>
+  <si>
+    <t>Georgetown, Washington County, Indiana</t>
+  </si>
+  <si>
+    <t>Georgetown, Kentucky</t>
+  </si>
+  <si>
+    <t>Georgetown, Louisiana</t>
+  </si>
+  <si>
+    <t>Georgetown, Maine</t>
+  </si>
+  <si>
+    <t>Georgetown, Massachusetts</t>
+  </si>
+  <si>
+    <t>Georgetown Township, Michigan</t>
+  </si>
+  <si>
+    <t>charter township</t>
+  </si>
+  <si>
+    <t>Georgetown, Minnesota</t>
+  </si>
+  <si>
+    <t>Georgetown, Mississippi</t>
+  </si>
+  <si>
+    <t>Georgetown, New York</t>
+  </si>
+  <si>
+    <t>Georgetown, Ohio</t>
+  </si>
+  <si>
+    <t>Georgetown, Beaver County, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Georgetown, South Carolina</t>
+  </si>
+  <si>
+    <t>Georgetown, Tennessee</t>
+  </si>
+  <si>
+    <t>Georgetown, Texas</t>
+  </si>
+  <si>
+    <t>Georgetown, Washington, DC</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>Fairview, Alabama</t>
+  </si>
+  <si>
+    <t>Fairview, California</t>
+  </si>
+  <si>
+    <t>Fairview, Georgia</t>
+  </si>
+  <si>
+    <t>Fairview, Illinois</t>
+  </si>
+  <si>
+    <t>Fairview Park, Indiana</t>
+  </si>
+  <si>
+    <t>Fairview, Kansas</t>
+  </si>
+  <si>
+    <t>Fairview, Christian County, Kentucky</t>
+  </si>
+  <si>
+    <t>Fairview, Kenton County, Kentucky</t>
+  </si>
+  <si>
+    <t>Fairview, Maryland</t>
+  </si>
+  <si>
+    <t>Fairview, Michigan</t>
+  </si>
+  <si>
+    <t>Fairview, Missouri</t>
+  </si>
+  <si>
+    <t>Fairview, Montana</t>
+  </si>
+  <si>
+    <t>Fairview, Bergen County, New Jersey</t>
+  </si>
+  <si>
+    <t>Fairview, Monmouth County, New Jersey</t>
+  </si>
+  <si>
+    <t>Fairview, Dutchess County, New York</t>
+  </si>
+  <si>
+    <t>Fairview, Westchester County, New York</t>
+  </si>
+  <si>
+    <t>Fairview, North Carolina</t>
+  </si>
+  <si>
+    <t>Fairview, Ohio</t>
+  </si>
+  <si>
+    <t>Fairview, Oklahoma</t>
+  </si>
+  <si>
+    <t>Fairview, Oregon</t>
+  </si>
+  <si>
+    <t>Fairview, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Fairview, South Dakota</t>
+  </si>
+  <si>
+    <t>Unincorporated Place</t>
+  </si>
+  <si>
+    <t>Fairview, Tennessee</t>
+  </si>
+  <si>
+    <t>Fairview, Texas</t>
+  </si>
+  <si>
+    <t>Fairview, Utah</t>
+  </si>
+  <si>
+    <t>Fairview, Marion County, West Virginia</t>
+  </si>
+  <si>
+    <t>Fairview, Wetzel County, West Virginia</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>Centerville</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Fairview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -832,6 +1340,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -867,6 +1392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1042,12 +1584,910 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223C3C89-24A4-465A-9136-FA311987FB70}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D31"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>35.126903200000001</v>
+      </c>
+      <c r="D2">
+        <v>-91.463052200000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>35.126903200000001</v>
+      </c>
+      <c r="D3">
+        <v>-91.463052200000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>39.717838100000002</v>
+      </c>
+      <c r="D4">
+        <v>-105.70453379999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>41.248992700000002</v>
+      </c>
+      <c r="D5">
+        <v>-73.470384800000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>41.248992700000002</v>
+      </c>
+      <c r="D6">
+        <v>-73.470384800000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7">
+        <v>31.978056800000001</v>
+      </c>
+      <c r="D7">
+        <v>-81.295963599999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>31.885163599999998</v>
+      </c>
+      <c r="D8">
+        <v>-85.1422448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>42.478656899999997</v>
+      </c>
+      <c r="D9">
+        <v>-111.3938263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>42.478656899999997</v>
+      </c>
+      <c r="D10">
+        <v>-111.3938263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>41.230911300000002</v>
+      </c>
+      <c r="D11">
+        <v>-84.8819886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>41.230911300000002</v>
+      </c>
+      <c r="D12">
+        <v>-84.8819886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>40.7392386</v>
+      </c>
+      <c r="D13">
+        <v>-86.523368599999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>40.157303599999999</v>
+      </c>
+      <c r="D14">
+        <v>-85.291389100000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>38.648361700000002</v>
+      </c>
+      <c r="D15">
+        <v>-86.015839600000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16">
+        <v>38.293912599999999</v>
+      </c>
+      <c r="D16">
+        <v>-86.0028188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17">
+        <v>41.730799699999999</v>
+      </c>
+      <c r="D17">
+        <v>-86.235237799999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>38.227548499999997</v>
+      </c>
+      <c r="D18">
+        <v>-84.623171499999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>31.758467199999998</v>
+      </c>
+      <c r="D19">
+        <v>-92.396986600000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <v>43.7981695</v>
+      </c>
+      <c r="D20">
+        <v>-69.808805500000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21">
+        <v>42.723561199999999</v>
+      </c>
+      <c r="D21">
+        <v>-71.048837500000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22">
+        <v>42.9071353</v>
+      </c>
+      <c r="D22">
+        <v>-85.913000400000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>47.078456299999999</v>
+      </c>
+      <c r="D23">
+        <v>-96.813476600000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24">
+        <v>31.869476899999999</v>
+      </c>
+      <c r="D24">
+        <v>-90.172819200000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25">
+        <v>42.768430100000003</v>
+      </c>
+      <c r="D25">
+        <v>-75.754086299999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26">
+        <v>38.871123599999997</v>
+      </c>
+      <c r="D26">
+        <v>-83.933193799999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27">
+        <v>40.641467499999997</v>
+      </c>
+      <c r="D27">
+        <v>-80.509266699999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>33.356432699999999</v>
+      </c>
+      <c r="D28">
+        <v>-79.329898799999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>35.288375199999997</v>
+      </c>
+      <c r="D29">
+        <v>-84.961781000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>30.656886199999999</v>
+      </c>
+      <c r="D30">
+        <v>-97.849032500000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31">
+        <v>38.909221299999999</v>
+      </c>
+      <c r="D31">
+        <v>-77.0822474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D363EB9E-303B-4400-B64A-AF960322F4B3}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>34.2473302</v>
+      </c>
+      <c r="D2">
+        <v>-86.704476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>37.675721199999998</v>
+      </c>
+      <c r="D3">
+        <v>-122.0833772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4">
+        <v>34.924653900000003</v>
+      </c>
+      <c r="D4">
+        <v>-85.327692799999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>40.648178799999997</v>
+      </c>
+      <c r="D5">
+        <v>-90.221919799999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>39.680875200000003</v>
+      </c>
+      <c r="D6">
+        <v>-87.432105500000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>39.839366099999999</v>
+      </c>
+      <c r="D7">
+        <v>-95.735136100000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>36.843409700000002</v>
+      </c>
+      <c r="D8">
+        <v>-87.321402199999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>38.9981443</v>
+      </c>
+      <c r="D9">
+        <v>-84.493596299999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10">
+        <v>39.581141199999998</v>
+      </c>
+      <c r="D10">
+        <v>-76.439179600000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>44.725214100000002</v>
+      </c>
+      <c r="D11">
+        <v>-84.085639999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12">
+        <v>36.817587500000002</v>
+      </c>
+      <c r="D12">
+        <v>-94.103383500000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>47.851123000000001</v>
+      </c>
+      <c r="D13">
+        <v>-104.0707831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>40.817621600000003</v>
+      </c>
+      <c r="D14">
+        <v>-74.019721000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15">
+        <v>40.364668299999998</v>
+      </c>
+      <c r="D15">
+        <v>-74.099731599999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16">
+        <v>41.731949700000001</v>
+      </c>
+      <c r="D16">
+        <v>-73.948044300000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17">
+        <v>41.043905000000002</v>
+      </c>
+      <c r="D17">
+        <v>-73.813598099999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18">
+        <v>35.522460199999998</v>
+      </c>
+      <c r="D18">
+        <v>-82.435012900000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>40.057579500000003</v>
+      </c>
+      <c r="D19">
+        <v>-81.2436407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20">
+        <v>36.267730999999998</v>
+      </c>
+      <c r="D20">
+        <v>-98.508965200000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>45.546844399999998</v>
+      </c>
+      <c r="D21">
+        <v>-122.4732911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22">
+        <v>42.027522900000001</v>
+      </c>
+      <c r="D22">
+        <v>-80.292610300000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>43.222179699999998</v>
+      </c>
+      <c r="D23">
+        <v>-96.491274300000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>35.9932011</v>
+      </c>
+      <c r="D24">
+        <v>-87.193102100000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25">
+        <v>33.1420046</v>
+      </c>
+      <c r="D25">
+        <v>-96.688107099999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26">
+        <v>39.629386199999999</v>
+      </c>
+      <c r="D26">
+        <v>-111.4544786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>39.592540200000002</v>
+      </c>
+      <c r="D27">
+        <v>-80.256415700000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28">
+        <v>39.539836999999999</v>
+      </c>
+      <c r="D28">
+        <v>-80.567323299999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E312"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1063,7 +2503,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
         <v>33</v>
@@ -1080,7 +2520,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1097,7 +2537,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1114,7 +2554,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1131,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1148,7 +2588,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1165,7 +2605,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1182,7 +2622,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1199,7 +2639,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1216,7 +2656,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1233,7 +2673,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1250,7 +2690,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1267,7 +2707,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1284,7 +2724,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1301,7 +2741,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1318,7 +2758,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1335,7 +2775,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1352,7 +2792,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1369,7 +2809,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1386,7 +2826,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1403,7 +2843,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1420,7 +2860,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -1437,7 +2877,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -1454,7 +2894,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -1471,7 +2911,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -1488,7 +2928,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -1505,7 +2945,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1522,7 +2962,7 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1539,7 +2979,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -1556,7 +2996,7 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1573,7 +3013,7 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -1590,7 +3030,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -1607,7 +3047,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -1624,7 +3064,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1638,10 +3078,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -1655,10 +3095,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -1672,10 +3112,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
@@ -1689,10 +3129,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -1706,10 +3146,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -1723,10 +3163,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -1740,10 +3180,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -1757,10 +3197,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -1774,10 +3214,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
@@ -1791,10 +3231,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -1808,10 +3248,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
@@ -1825,10 +3265,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -1842,10 +3282,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -1859,10 +3299,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -1876,10 +3316,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
@@ -1893,10 +3333,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -1910,10 +3350,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
@@ -1927,10 +3367,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -1944,10 +3384,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -1961,10 +3401,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -1978,10 +3418,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
         <v>78</v>
@@ -1995,10 +3435,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
         <v>79</v>
@@ -2012,10 +3452,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
@@ -2029,10 +3469,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
@@ -2046,10 +3486,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
@@ -2063,10 +3503,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
@@ -2080,10 +3520,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
@@ -2097,10 +3537,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -2114,10 +3554,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -2131,10 +3571,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
@@ -2148,10 +3588,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
@@ -2165,10 +3605,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -2182,10 +3622,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -2199,10 +3639,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
@@ -2216,10 +3656,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
@@ -2233,10 +3673,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
@@ -2250,10 +3690,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -2267,10 +3707,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -2284,10 +3724,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
@@ -2301,10 +3741,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
@@ -2318,10 +3758,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
@@ -2335,10 +3775,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
@@ -2352,10 +3792,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
         <v>81</v>
@@ -2369,10 +3809,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
         <v>83</v>
@@ -2386,10 +3826,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
         <v>85</v>
@@ -2403,10 +3843,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
         <v>86</v>
@@ -2420,10 +3860,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
         <v>87</v>
@@ -2437,10 +3877,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2454,10 +3894,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2471,10 +3911,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2488,10 +3928,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2505,10 +3945,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s">
         <v>94</v>
@@ -2522,10 +3962,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
         <v>95</v>
@@ -2539,10 +3979,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C88" t="s">
         <v>96</v>
@@ -2556,10 +3996,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
         <v>97</v>
@@ -2573,10 +4013,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
         <v>98</v>
@@ -2590,10 +4030,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
         <v>100</v>
@@ -2607,10 +4047,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
         <v>101</v>
@@ -2624,478 +4064,478 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D93">
-        <v>39.364565599999999</v>
+        <v>42.357877500000001</v>
       </c>
       <c r="E93">
-        <v>-76.673053100000004</v>
+        <v>-73.291470599999997</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
         <v>104</v>
       </c>
       <c r="D94">
-        <v>42.357877500000001</v>
+        <v>42.102338500000002</v>
       </c>
       <c r="E94">
-        <v>-73.291470599999997</v>
+        <v>-73.534115900000003</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
         <v>105</v>
       </c>
       <c r="D95">
-        <v>42.102338500000002</v>
+        <v>42.757958100000003</v>
       </c>
       <c r="E95">
-        <v>-73.534115900000003</v>
+        <v>-83.108209500000001</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
         <v>106</v>
       </c>
       <c r="D96">
-        <v>42.757958100000003</v>
+        <v>31.578812200000002</v>
       </c>
       <c r="E96">
-        <v>-83.108209500000001</v>
+        <v>-91.316788000000003</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C97" t="s">
         <v>107</v>
       </c>
       <c r="D97">
-        <v>31.578812200000002</v>
+        <v>38.555789300000001</v>
       </c>
       <c r="E97">
-        <v>-91.316788000000003</v>
+        <v>-91.088746</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
         <v>108</v>
       </c>
       <c r="D98">
-        <v>38.555789300000001</v>
+        <v>41.397600699999998</v>
       </c>
       <c r="E98">
-        <v>-91.088746</v>
+        <v>-96.215670299999999</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
         <v>109</v>
       </c>
       <c r="D99">
-        <v>41.397600699999998</v>
+        <v>43.192090299999997</v>
       </c>
       <c r="E99">
-        <v>-96.215670299999999</v>
+        <v>-72.233808100000005</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
         <v>110</v>
       </c>
       <c r="D100">
-        <v>43.192090299999997</v>
+        <v>40.7566202</v>
       </c>
       <c r="E100">
-        <v>-72.233808100000005</v>
+        <v>-74.998253099999999</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D101">
-        <v>40.7566202</v>
+        <v>41.7907364</v>
       </c>
       <c r="E101">
-        <v>-74.998253099999999</v>
+        <v>-73.812307500000003</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
         <v>113</v>
       </c>
       <c r="D102">
-        <v>41.7907364</v>
+        <v>40.842541400000002</v>
       </c>
       <c r="E102">
-        <v>-73.812307500000003</v>
+        <v>-73.707977299999996</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
         <v>114</v>
       </c>
       <c r="D103">
-        <v>40.842541400000002</v>
+        <v>41.429765000000003</v>
       </c>
       <c r="E103">
-        <v>-73.707977299999996</v>
+        <v>-74.189335799999995</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
         <v>115</v>
       </c>
       <c r="D104">
-        <v>41.429765000000003</v>
+        <v>35.568474000000002</v>
       </c>
       <c r="E104">
-        <v>-74.189335799999995</v>
+        <v>-77.117557500000004</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
         <v>116</v>
       </c>
       <c r="D105">
-        <v>35.568474000000002</v>
+        <v>35.532048000000003</v>
       </c>
       <c r="E105">
-        <v>-77.117557500000004</v>
+        <v>-77.040735799999993</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
         <v>117</v>
       </c>
       <c r="D106">
-        <v>35.532048000000003</v>
+        <v>39.430656800000001</v>
       </c>
       <c r="E106">
-        <v>-77.040735799999993</v>
+        <v>-82.005637300000004</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
         <v>118</v>
       </c>
       <c r="D107">
-        <v>39.430656800000001</v>
+        <v>40.326282900000002</v>
       </c>
       <c r="E107">
-        <v>-82.005637300000004</v>
+        <v>-81.535994500000001</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C108" t="s">
         <v>119</v>
       </c>
       <c r="D108">
-        <v>40.326282900000002</v>
+        <v>40.038196900000003</v>
       </c>
       <c r="E108">
-        <v>-81.535994500000001</v>
+        <v>-81.461597499999996</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s">
         <v>120</v>
       </c>
       <c r="D109">
-        <v>40.038196900000003</v>
+        <v>40.900441100000002</v>
       </c>
       <c r="E109">
-        <v>-81.461597499999996</v>
+        <v>-80.784032600000003</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C110" t="s">
         <v>121</v>
       </c>
       <c r="D110">
-        <v>40.900441100000002</v>
+        <v>39.538975800000003</v>
       </c>
       <c r="E110">
-        <v>-80.784032600000003</v>
+        <v>-83.500741599999998</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
         <v>122</v>
       </c>
       <c r="D111">
-        <v>39.538975800000003</v>
+        <v>35.059153899999998</v>
       </c>
       <c r="E111">
-        <v>-83.500741599999998</v>
+        <v>-97.508752000000001</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C112" t="s">
         <v>123</v>
       </c>
       <c r="D112">
-        <v>35.059153899999998</v>
+        <v>40.1764267</v>
       </c>
       <c r="E112">
-        <v>-97.508752000000001</v>
+        <v>-80.277425300000004</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
         <v>124</v>
       </c>
       <c r="D113">
-        <v>40.1764267</v>
+        <v>30.327655799999999</v>
       </c>
       <c r="E113">
-        <v>-80.277425300000004</v>
+        <v>-96.180366100000001</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C114" t="s">
         <v>125</v>
       </c>
       <c r="D114">
-        <v>30.327655799999999</v>
+        <v>37.118225600000002</v>
       </c>
       <c r="E114">
-        <v>-96.180366100000001</v>
+        <v>-113.5491933</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
         <v>126</v>
       </c>
       <c r="D115">
-        <v>37.118225600000002</v>
+        <v>41.1692003</v>
       </c>
       <c r="E115">
-        <v>-113.5491933</v>
+        <v>-111.9965825</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C116" t="s">
         <v>127</v>
       </c>
       <c r="D116">
-        <v>41.1692003</v>
+        <v>44.070885400000002</v>
       </c>
       <c r="E116">
-        <v>-111.9965825</v>
+        <v>-72.495182799999995</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C117" t="s">
         <v>128</v>
       </c>
       <c r="D117">
-        <v>44.070885400000002</v>
+        <v>38.711931800000002</v>
       </c>
       <c r="E117">
-        <v>-72.495182799999995</v>
+        <v>-78.168496099999999</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C118" t="s">
         <v>129</v>
       </c>
       <c r="D118">
-        <v>38.711931800000002</v>
+        <v>39.242644200000001</v>
       </c>
       <c r="E118">
-        <v>-78.168496099999999</v>
+        <v>-81.703310799999997</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D119">
-        <v>39.242644200000001</v>
+        <v>44.749245700000003</v>
       </c>
       <c r="E119">
-        <v>-81.703310799999997</v>
+        <v>-91.567474399999995</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C120" t="s">
         <v>132</v>
       </c>
       <c r="D120">
-        <v>44.749245700000003</v>
+        <v>43.388039999999997</v>
       </c>
       <c r="E120">
-        <v>-91.567474399999995</v>
+        <v>-87.921270800000002</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,61 +4557,61 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C122" t="s">
         <v>134</v>
       </c>
       <c r="D122">
-        <v>43.388039999999997</v>
+        <v>32.457396500000002</v>
       </c>
       <c r="E122">
-        <v>-87.921270800000002</v>
+        <v>-85.841160799999997</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C123" t="s">
         <v>135</v>
       </c>
       <c r="D123">
-        <v>32.457396500000002</v>
+        <v>41.614377500000003</v>
       </c>
       <c r="E123">
-        <v>-85.841160799999997</v>
+        <v>-72.219111400000003</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C124" t="s">
         <v>136</v>
       </c>
       <c r="D124">
-        <v>41.614377500000003</v>
+        <v>33.2792137</v>
       </c>
       <c r="E124">
-        <v>-72.219111400000003</v>
+        <v>-85.116135999999997</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C125" t="s">
         <v>137</v>
@@ -3185,58 +4625,58 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="C126" t="s">
         <v>138</v>
       </c>
       <c r="D126">
-        <v>33.2792137</v>
+        <v>39.623789199999997</v>
       </c>
       <c r="E126">
-        <v>-85.116135999999997</v>
+        <v>-90.064594600000007</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C127" t="s">
         <v>139</v>
       </c>
       <c r="D127">
-        <v>39.623789199999997</v>
+        <v>39.501366900000001</v>
       </c>
       <c r="E127">
-        <v>-90.064594600000007</v>
+        <v>-86.118319999999997</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C128" t="s">
         <v>140</v>
       </c>
       <c r="D128">
-        <v>39.501366900000001</v>
+        <v>40.666673099999997</v>
       </c>
       <c r="E128">
-        <v>-86.118319999999997</v>
+        <v>-91.516107300000002</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B129" t="s">
         <v>218</v>
@@ -3245,103 +4685,103 @@
         <v>141</v>
       </c>
       <c r="D129">
-        <v>40.666673099999997</v>
+        <v>37.523209100000003</v>
       </c>
       <c r="E129">
-        <v>-91.516107300000002</v>
+        <v>-94.718854100000001</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C130" t="s">
         <v>142</v>
       </c>
       <c r="D130">
-        <v>37.523209100000003</v>
+        <v>36.747869000000001</v>
       </c>
       <c r="E130">
-        <v>-94.718854100000001</v>
+        <v>-86.627235600000006</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B131" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C131" t="s">
         <v>143</v>
       </c>
       <c r="D131">
-        <v>36.747869000000001</v>
+        <v>29.7881769</v>
       </c>
       <c r="E131">
-        <v>-86.627235600000006</v>
+        <v>-91.547669400000004</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B132" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C132" t="s">
         <v>144</v>
       </c>
       <c r="D132">
-        <v>29.7881769</v>
+        <v>44.596984800000001</v>
       </c>
       <c r="E132">
-        <v>-91.547669400000004</v>
+        <v>-68.375462900000002</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C133" t="s">
         <v>145</v>
       </c>
       <c r="D133">
-        <v>44.596984800000001</v>
+        <v>42.087671999999998</v>
       </c>
       <c r="E133">
-        <v>-68.375462900000002</v>
+        <v>-71.477344400000007</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C134" t="s">
         <v>146</v>
       </c>
       <c r="D134">
-        <v>42.087671999999998</v>
+        <v>42.518611800000002</v>
       </c>
       <c r="E134">
-        <v>-71.477344400000007</v>
+        <v>-83.320405600000001</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B135" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C135" t="s">
         <v>147</v>
@@ -3355,7 +4795,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
         <v>211</v>
@@ -3364,120 +4804,120 @@
         <v>148</v>
       </c>
       <c r="D136">
-        <v>42.518611800000002</v>
+        <v>44.529524799999997</v>
       </c>
       <c r="E136">
-        <v>-83.320405600000001</v>
+        <v>-94.904689000000005</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
         <v>149</v>
       </c>
       <c r="D137">
-        <v>44.529524799999997</v>
+        <v>39.011179800000001</v>
       </c>
       <c r="E137">
-        <v>-94.904689000000005</v>
+        <v>-92.764206200000004</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C138" t="s">
         <v>150</v>
       </c>
       <c r="D138">
-        <v>39.011179800000001</v>
+        <v>43.447584200000001</v>
       </c>
       <c r="E138">
-        <v>-92.764206200000004</v>
+        <v>-71.746459999999999</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B139" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
         <v>151</v>
       </c>
       <c r="D139">
-        <v>43.447584200000001</v>
+        <v>41.111682899999998</v>
       </c>
       <c r="E139">
-        <v>-71.746459999999999</v>
+        <v>-74.624895699999996</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
         <v>152</v>
       </c>
       <c r="D140">
-        <v>41.111682899999998</v>
+        <v>39.588898999999998</v>
       </c>
       <c r="E140">
-        <v>-74.624895699999996</v>
+        <v>-75.162899300000007</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D141">
-        <v>39.588898999999998</v>
+        <v>40.567524800000001</v>
       </c>
       <c r="E141">
-        <v>-75.162899300000007</v>
+        <v>-75.0043024</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C142" t="s">
         <v>155</v>
       </c>
       <c r="D142">
-        <v>40.567524800000001</v>
+        <v>40.464654600000003</v>
       </c>
       <c r="E142">
-        <v>-75.0043024</v>
+        <v>-74.688334800000007</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C143" t="s">
         <v>156</v>
@@ -3491,143 +4931,143 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C144" t="s">
         <v>157</v>
       </c>
       <c r="D144">
-        <v>40.464654600000003</v>
+        <v>42.341897899999999</v>
       </c>
       <c r="E144">
-        <v>-74.688334800000007</v>
+        <v>-75.243940600000002</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s">
         <v>158</v>
       </c>
       <c r="D145">
-        <v>42.341897899999999</v>
+        <v>44.528831599999997</v>
       </c>
       <c r="E145">
-        <v>-75.243940600000002</v>
+        <v>-74.188900799999999</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
         <v>159</v>
       </c>
       <c r="D146">
-        <v>44.528831599999997</v>
+        <v>35.176338100000002</v>
       </c>
       <c r="E146">
-        <v>-74.188900799999999</v>
+        <v>-83.417695499999994</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C147" t="s">
         <v>160</v>
       </c>
       <c r="D147">
-        <v>35.176338100000002</v>
+        <v>44.161138899999997</v>
       </c>
       <c r="E147">
-        <v>-83.417695499999994</v>
+        <v>-123.3208396</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B148" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C148" t="s">
         <v>161</v>
       </c>
       <c r="D148">
-        <v>44.161138899999997</v>
+        <v>39.554181700000001</v>
       </c>
       <c r="E148">
-        <v>-123.3208396</v>
+        <v>-84.364452999999997</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B149" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C149" t="s">
         <v>162</v>
       </c>
       <c r="D149">
-        <v>39.554181700000001</v>
+        <v>40.343397299999999</v>
       </c>
       <c r="E149">
-        <v>-84.364452999999997</v>
+        <v>-78.902305600000005</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C150" t="s">
         <v>163</v>
       </c>
       <c r="D150">
-        <v>40.343397299999999</v>
+        <v>41.394874600000001</v>
       </c>
       <c r="E150">
-        <v>-78.902305600000005</v>
+        <v>-79.879915199999999</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C151" t="s">
         <v>164</v>
       </c>
       <c r="D151">
-        <v>41.394874600000001</v>
+        <v>43.891670499999996</v>
       </c>
       <c r="E151">
-        <v>-79.879915199999999</v>
+        <v>-97.086457800000005</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B152" t="s">
         <v>213</v>
@@ -3636,112 +5076,2265 @@
         <v>165</v>
       </c>
       <c r="D152">
-        <v>43.891670499999996</v>
+        <v>35.905659700000001</v>
       </c>
       <c r="E152">
-        <v>-97.086457800000005</v>
+        <v>-86.988023100000007</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B153" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C153" t="s">
         <v>166</v>
       </c>
       <c r="D153">
-        <v>35.905659700000001</v>
+        <v>31.0252731</v>
       </c>
       <c r="E153">
-        <v>-86.988023100000007</v>
+        <v>-96.504216099999994</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B154" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s">
         <v>167</v>
       </c>
       <c r="D154">
-        <v>31.0252731</v>
+        <v>44.968426299999997</v>
       </c>
       <c r="E154">
-        <v>-96.504216099999994</v>
+        <v>-73.047747599999994</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C155" t="s">
         <v>168</v>
       </c>
       <c r="D155">
-        <v>44.968426299999997</v>
+        <v>36.677963200000001</v>
       </c>
       <c r="E155">
-        <v>-73.047747599999994</v>
+        <v>-76.974572300000005</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C156" t="s">
         <v>169</v>
       </c>
       <c r="D156">
-        <v>36.677963200000001</v>
+        <v>38.646653299999997</v>
       </c>
       <c r="E156">
-        <v>-76.974572300000005</v>
+        <v>-79.342044299999998</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B157" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C157" t="s">
         <v>170</v>
       </c>
       <c r="D157">
-        <v>38.646653299999997</v>
+        <v>42.886973400000002</v>
       </c>
       <c r="E157">
-        <v>-79.342044299999998</v>
+        <v>-88.079654899999994</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>174</v>
-      </c>
-      <c r="B158" t="s">
-        <v>184</v>
+        <v>381</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D158">
-        <v>42.886973400000002</v>
+        <v>32.063441500000003</v>
       </c>
       <c r="E158">
-        <v>-88.079654899999994</v>
+        <v>-87.603796299999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>381</v>
+      </c>
+      <c r="C159" t="s">
+        <v>221</v>
+      </c>
+      <c r="D159">
+        <v>33.336039599999999</v>
+      </c>
+      <c r="E159">
+        <v>-112.7934966</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>381</v>
+      </c>
+      <c r="C160" t="s">
+        <v>222</v>
+      </c>
+      <c r="D160">
+        <v>33.922769899999999</v>
+      </c>
+      <c r="E160">
+        <v>-117.46910200000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>381</v>
+      </c>
+      <c r="C161" t="s">
+        <v>224</v>
+      </c>
+      <c r="D161">
+        <v>38.336146599999999</v>
+      </c>
+      <c r="E161">
+        <v>-103.3607761</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>381</v>
+      </c>
+      <c r="C162" t="s">
+        <v>225</v>
+      </c>
+      <c r="D162">
+        <v>31.438331900000001</v>
+      </c>
+      <c r="E162">
+        <v>-84.742841499999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>381</v>
+      </c>
+      <c r="C163" t="s">
+        <v>226</v>
+      </c>
+      <c r="D163">
+        <v>42.086197499999997</v>
+      </c>
+      <c r="E163">
+        <v>-88.053561299999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>381</v>
+      </c>
+      <c r="C164" t="s">
+        <v>227</v>
+      </c>
+      <c r="D164">
+        <v>39.183967299999999</v>
+      </c>
+      <c r="E164">
+        <v>-86.567507300000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>381</v>
+      </c>
+      <c r="C165" t="s">
+        <v>228</v>
+      </c>
+      <c r="D165">
+        <v>39.644154700000001</v>
+      </c>
+      <c r="E165">
+        <v>-85.598854000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>381</v>
+      </c>
+      <c r="C166" t="s">
+        <v>229</v>
+      </c>
+      <c r="D166">
+        <v>42.748821100000001</v>
+      </c>
+      <c r="E166">
+        <v>-91.688614000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>381</v>
+      </c>
+      <c r="C167" t="s">
+        <v>230</v>
+      </c>
+      <c r="D167">
+        <v>37.895666499999997</v>
+      </c>
+      <c r="E167">
+        <v>-98.193769000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>381</v>
+      </c>
+      <c r="C168" t="s">
+        <v>231</v>
+      </c>
+      <c r="D168">
+        <v>36.790083099999997</v>
+      </c>
+      <c r="E168">
+        <v>-89.027519600000005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>381</v>
+      </c>
+      <c r="C169" t="s">
+        <v>232</v>
+      </c>
+      <c r="D169">
+        <v>42.416942499999998</v>
+      </c>
+      <c r="E169">
+        <v>-71.202514300000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>381</v>
+      </c>
+      <c r="C170" t="s">
+        <v>233</v>
+      </c>
+      <c r="D170">
+        <v>42.288129599999998</v>
+      </c>
+      <c r="E170">
+        <v>-86.121649000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>381</v>
+      </c>
+      <c r="C171" t="s">
+        <v>235</v>
+      </c>
+      <c r="D171">
+        <v>44.608166199999999</v>
+      </c>
+      <c r="E171">
+        <v>-94.094314499999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>381</v>
+      </c>
+      <c r="C172" t="s">
+        <v>236</v>
+      </c>
+      <c r="D172">
+        <v>37.9203501</v>
+      </c>
+      <c r="E172">
+        <v>-91.988505399999994</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>381</v>
+      </c>
+      <c r="C173" t="s">
+        <v>237</v>
+      </c>
+      <c r="D173">
+        <v>41.454720700000003</v>
+      </c>
+      <c r="E173">
+        <v>-96.375621100000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>381</v>
+      </c>
+      <c r="C174" t="s">
+        <v>238</v>
+      </c>
+      <c r="D174">
+        <v>40.777452799999999</v>
+      </c>
+      <c r="E174">
+        <v>-74.155520600000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>381</v>
+      </c>
+      <c r="C175" t="s">
+        <v>239</v>
+      </c>
+      <c r="D175">
+        <v>41.694000699999997</v>
+      </c>
+      <c r="E175">
+        <v>-73.920920300000006</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>381</v>
+      </c>
+      <c r="C176" t="s">
+        <v>240</v>
+      </c>
+      <c r="D176">
+        <v>40.632356399999999</v>
+      </c>
+      <c r="E176">
+        <v>-74.182653299999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>381</v>
+      </c>
+      <c r="C177" t="s">
+        <v>241</v>
+      </c>
+      <c r="D177">
+        <v>36.227389600000002</v>
+      </c>
+      <c r="E177">
+        <v>-80.850913300000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>381</v>
+      </c>
+      <c r="C178" t="s">
+        <v>242</v>
+      </c>
+      <c r="D178">
+        <v>40.896694500000002</v>
+      </c>
+      <c r="E178">
+        <v>-83.670503499999995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>381</v>
+      </c>
+      <c r="C179" t="s">
+        <v>243</v>
+      </c>
+      <c r="D179">
+        <v>39.866473399999997</v>
+      </c>
+      <c r="E179">
+        <v>-84.442180100000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>381</v>
+      </c>
+      <c r="C180" t="s">
+        <v>244</v>
+      </c>
+      <c r="D180">
+        <v>45.722364599999999</v>
+      </c>
+      <c r="E180">
+        <v>-120.22392019999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>381</v>
+      </c>
+      <c r="C181" t="s">
+        <v>245</v>
+      </c>
+      <c r="D181">
+        <v>44.3640598</v>
+      </c>
+      <c r="E181">
+        <v>-97.151810100000006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>381</v>
+      </c>
+      <c r="C182" t="s">
+        <v>246</v>
+      </c>
+      <c r="D182">
+        <v>35.2622334</v>
+      </c>
+      <c r="E182">
+        <v>-89.745343000000005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>381</v>
+      </c>
+      <c r="C183" t="s">
+        <v>247</v>
+      </c>
+      <c r="D183">
+        <v>32.702054099999998</v>
+      </c>
+      <c r="E183">
+        <v>-97.275495899999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>381</v>
+      </c>
+      <c r="C184" t="s">
+        <v>248</v>
+      </c>
+      <c r="D184">
+        <v>43.074682000000003</v>
+      </c>
+      <c r="E184">
+        <v>-73.272534399999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>381</v>
+      </c>
+      <c r="C185" t="s">
+        <v>249</v>
+      </c>
+      <c r="D185">
+        <v>38.880929199999997</v>
+      </c>
+      <c r="E185">
+        <v>-77.172195599999995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>381</v>
+      </c>
+      <c r="C186" t="s">
+        <v>251</v>
+      </c>
+      <c r="D186">
+        <v>37.226518200000001</v>
+      </c>
+      <c r="E186">
+        <v>-76.020104000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>381</v>
+      </c>
+      <c r="C187" t="s">
+        <v>252</v>
+      </c>
+      <c r="D187">
+        <v>48.174279200000001</v>
+      </c>
+      <c r="E187">
+        <v>-122.21944329999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>381</v>
+      </c>
+      <c r="C188" t="s">
+        <v>253</v>
+      </c>
+      <c r="D188">
+        <v>39.308453399999998</v>
+      </c>
+      <c r="E188">
+        <v>-80.364265599999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>381</v>
+      </c>
+      <c r="C189" t="s">
+        <v>254</v>
+      </c>
+      <c r="D189">
+        <v>38.8012856</v>
+      </c>
+      <c r="E189">
+        <v>-80.362358599999993</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" t="s">
+        <v>255</v>
+      </c>
+      <c r="D190">
+        <v>43.337733999999998</v>
+      </c>
+      <c r="E190">
+        <v>-89.492141399999994</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" t="s">
+        <v>256</v>
+      </c>
+      <c r="D191">
+        <v>43.3361029</v>
+      </c>
+      <c r="E191">
+        <v>-89.390184099999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>381</v>
+      </c>
+      <c r="C192" t="s">
+        <v>257</v>
+      </c>
+      <c r="D192">
+        <v>41.594720199999998</v>
+      </c>
+      <c r="E192">
+        <v>-106.22585549999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>382</v>
+      </c>
+      <c r="C193" t="s">
+        <v>258</v>
+      </c>
+      <c r="D193">
+        <v>38.582273899999997</v>
+      </c>
+      <c r="E193">
+        <v>-90.138287300000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>382</v>
+      </c>
+      <c r="C194" t="s">
+        <v>259</v>
+      </c>
+      <c r="D194">
+        <v>38.200634399999998</v>
+      </c>
+      <c r="E194">
+        <v>-88.183659399999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>382</v>
+      </c>
+      <c r="C195" t="s">
+        <v>260</v>
+      </c>
+      <c r="D195">
+        <v>40.029134800000001</v>
+      </c>
+      <c r="E195">
+        <v>-80.027965499999993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>382</v>
+      </c>
+      <c r="C196" t="s">
+        <v>261</v>
+      </c>
+      <c r="D196">
+        <v>45.750701599999999</v>
+      </c>
+      <c r="E196">
+        <v>-120.94327920000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>382</v>
+      </c>
+      <c r="C197" t="s">
+        <v>262</v>
+      </c>
+      <c r="D197">
+        <v>38.844997100000001</v>
+      </c>
+      <c r="E197">
+        <v>-77.510828000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>382</v>
+      </c>
+      <c r="C198" t="s">
+        <v>263</v>
+      </c>
+      <c r="D198">
+        <v>44.619246599999997</v>
+      </c>
+      <c r="E198">
+        <v>-72.603735900000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>382</v>
+      </c>
+      <c r="C199" t="s">
+        <v>265</v>
+      </c>
+      <c r="D199">
+        <v>40.928778999999999</v>
+      </c>
+      <c r="E199">
+        <v>-111.9195148</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>382</v>
+      </c>
+      <c r="C200" t="s">
+        <v>266</v>
+      </c>
+      <c r="D200">
+        <v>44.069991399999999</v>
+      </c>
+      <c r="E200">
+        <v>-91.468767700000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>382</v>
+      </c>
+      <c r="C201" t="s">
+        <v>267</v>
+      </c>
+      <c r="D201">
+        <v>31.258697399999999</v>
+      </c>
+      <c r="E201">
+        <v>-95.996961499999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>382</v>
+      </c>
+      <c r="C202" t="s">
+        <v>268</v>
+      </c>
+      <c r="D202">
+        <v>35.802255299999999</v>
+      </c>
+      <c r="E202">
+        <v>-87.534907000000004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>382</v>
+      </c>
+      <c r="C203" t="s">
+        <v>269</v>
+      </c>
+      <c r="D203">
+        <v>44.866262499999998</v>
+      </c>
+      <c r="E203">
+        <v>-92.432266600000005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>382</v>
+      </c>
+      <c r="C204" t="s">
+        <v>270</v>
+      </c>
+      <c r="D204">
+        <v>43.1169309</v>
+      </c>
+      <c r="E204">
+        <v>-96.978603500000006</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>382</v>
+      </c>
+      <c r="C205" t="s">
+        <v>271</v>
+      </c>
+      <c r="D205">
+        <v>34.528047700000002</v>
+      </c>
+      <c r="E205">
+        <v>-82.748198900000006</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>382</v>
+      </c>
+      <c r="C206" t="s">
+        <v>272</v>
+      </c>
+      <c r="D206">
+        <v>40.123397099999998</v>
+      </c>
+      <c r="E206">
+        <v>-88.513681399999996</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>382</v>
+      </c>
+      <c r="C207" t="s">
+        <v>273</v>
+      </c>
+      <c r="D207">
+        <v>36.184694999999998</v>
+      </c>
+      <c r="E207">
+        <v>-78.118863300000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>382</v>
+      </c>
+      <c r="C208" t="s">
+        <v>274</v>
+      </c>
+      <c r="D208">
+        <v>39.215672699999999</v>
+      </c>
+      <c r="E208">
+        <v>-90.821938200000005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>382</v>
+      </c>
+      <c r="C209" t="s">
+        <v>275</v>
+      </c>
+      <c r="D209">
+        <v>39.632202599999999</v>
+      </c>
+      <c r="E209">
+        <v>-84.2288195</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>382</v>
+      </c>
+      <c r="C210" t="s">
+        <v>276</v>
+      </c>
+      <c r="D210">
+        <v>37.436578599999997</v>
+      </c>
+      <c r="E210">
+        <v>-90.968878099999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>382</v>
+      </c>
+      <c r="C211" t="s">
+        <v>277</v>
+      </c>
+      <c r="D211">
+        <v>45.162171100000002</v>
+      </c>
+      <c r="E211">
+        <v>-93.093619799999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>382</v>
+      </c>
+      <c r="C212" t="s">
+        <v>278</v>
+      </c>
+      <c r="D212">
+        <v>41.6673896</v>
+      </c>
+      <c r="E212">
+        <v>-70.412252699999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>382</v>
+      </c>
+      <c r="C213" t="s">
+        <v>279</v>
+      </c>
+      <c r="D213">
+        <v>43.935907200000003</v>
+      </c>
+      <c r="E213">
+        <v>-87.815267300000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>382</v>
+      </c>
+      <c r="C214" t="s">
+        <v>280</v>
+      </c>
+      <c r="D214">
+        <v>39.100911000000004</v>
+      </c>
+      <c r="E214">
+        <v>-89.995668699999996</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>382</v>
+      </c>
+      <c r="C215" t="s">
+        <v>281</v>
+      </c>
+      <c r="D215">
+        <v>41.064512100000002</v>
+      </c>
+      <c r="E215">
+        <v>-90.071791200000007</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>382</v>
+      </c>
+      <c r="C216" t="s">
+        <v>282</v>
+      </c>
+      <c r="D216">
+        <v>38.220890699999998</v>
+      </c>
+      <c r="E216">
+        <v>-95.031645699999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>382</v>
+      </c>
+      <c r="C217" t="s">
+        <v>283</v>
+      </c>
+      <c r="D217">
+        <v>40.730569199999998</v>
+      </c>
+      <c r="E217">
+        <v>-92.901975300000004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>382</v>
+      </c>
+      <c r="C218" t="s">
+        <v>284</v>
+      </c>
+      <c r="D218">
+        <v>39.819544200000003</v>
+      </c>
+      <c r="E218">
+        <v>-85.0094931</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>382</v>
+      </c>
+      <c r="C219" t="s">
+        <v>285</v>
+      </c>
+      <c r="D219">
+        <v>40.005835599999997</v>
+      </c>
+      <c r="E219">
+        <v>-90.311973600000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>382</v>
+      </c>
+      <c r="C220" t="s">
+        <v>286</v>
+      </c>
+      <c r="D220">
+        <v>32.6387389</v>
+      </c>
+      <c r="E220">
+        <v>-83.719077200000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>382</v>
+      </c>
+      <c r="C221" t="s">
+        <v>287</v>
+      </c>
+      <c r="D221">
+        <v>38.898055200000002</v>
+      </c>
+      <c r="E221">
+        <v>-82.449910299999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>382</v>
+      </c>
+      <c r="C222" t="s">
+        <v>288</v>
+      </c>
+      <c r="D222">
+        <v>39.821531299999997</v>
+      </c>
+      <c r="E222">
+        <v>-75.634105300000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>382</v>
+      </c>
+      <c r="C223" t="s">
+        <v>289</v>
+      </c>
+      <c r="D223">
+        <v>41.737496200000002</v>
+      </c>
+      <c r="E223">
+        <v>-79.777011099999996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>382</v>
+      </c>
+      <c r="C224" t="s">
+        <v>290</v>
+      </c>
+      <c r="D224">
+        <v>38.929287500000001</v>
+      </c>
+      <c r="E224">
+        <v>-90.589050599999993</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>382</v>
+      </c>
+      <c r="C225" t="s">
+        <v>291</v>
+      </c>
+      <c r="D225">
+        <v>38.223996300000003</v>
+      </c>
+      <c r="E225">
+        <v>-84.408834999999996</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>383</v>
+      </c>
+      <c r="C226" t="s">
+        <v>292</v>
+      </c>
+      <c r="D226">
+        <v>35.5764791</v>
+      </c>
+      <c r="E226">
+        <v>-92.495878300000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>383</v>
+      </c>
+      <c r="C227" t="s">
+        <v>293</v>
+      </c>
+      <c r="D227">
+        <v>41.2948047</v>
+      </c>
+      <c r="E227">
+        <v>-72.604904399999995</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>383</v>
+      </c>
+      <c r="C228" t="s">
+        <v>294</v>
+      </c>
+      <c r="D228">
+        <v>40.149123299999999</v>
+      </c>
+      <c r="E228">
+        <v>-89.001683299999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>383</v>
+      </c>
+      <c r="C229" t="s">
+        <v>295</v>
+      </c>
+      <c r="D229">
+        <v>39.663103100000001</v>
+      </c>
+      <c r="E229">
+        <v>-87.430670500000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>383</v>
+      </c>
+      <c r="C230" t="s">
+        <v>296</v>
+      </c>
+      <c r="D230">
+        <v>41.852208099999999</v>
+      </c>
+      <c r="E230">
+        <v>-90.389296999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>383</v>
+      </c>
+      <c r="C231" t="s">
+        <v>297</v>
+      </c>
+      <c r="D231">
+        <v>36.664444500000002</v>
+      </c>
+      <c r="E231">
+        <v>-89.011135999999993</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>383</v>
+      </c>
+      <c r="C232" t="s">
+        <v>298</v>
+      </c>
+      <c r="D232">
+        <v>30.8614502</v>
+      </c>
+      <c r="E232">
+        <v>-91.033106099999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>383</v>
+      </c>
+      <c r="C233" t="s">
+        <v>299</v>
+      </c>
+      <c r="D233">
+        <v>44.668599999999998</v>
+      </c>
+      <c r="E233">
+        <v>-69.677882400000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>383</v>
+      </c>
+      <c r="C234" t="s">
+        <v>300</v>
+      </c>
+      <c r="D234">
+        <v>38.760050900000003</v>
+      </c>
+      <c r="E234">
+        <v>-76.958204499999994</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>383</v>
+      </c>
+      <c r="C235" t="s">
+        <v>301</v>
+      </c>
+      <c r="D235">
+        <v>42.413110000000003</v>
+      </c>
+      <c r="E235">
+        <v>-71.726311300000006</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>383</v>
+      </c>
+      <c r="C236" t="s">
+        <v>302</v>
+      </c>
+      <c r="D236">
+        <v>42.585023999999997</v>
+      </c>
+      <c r="E236">
+        <v>-82.984550900000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>383</v>
+      </c>
+      <c r="C237" t="s">
+        <v>304</v>
+      </c>
+      <c r="D237">
+        <v>42.066381</v>
+      </c>
+      <c r="E237">
+        <v>-83.986469099999994</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>383</v>
+      </c>
+      <c r="C238" t="s">
+        <v>305</v>
+      </c>
+      <c r="D238">
+        <v>45.462826700000001</v>
+      </c>
+      <c r="E238">
+        <v>-96.458803099999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>383</v>
+      </c>
+      <c r="C239" t="s">
+        <v>306</v>
+      </c>
+      <c r="D239">
+        <v>32.347128699999999</v>
+      </c>
+      <c r="E239">
+        <v>-90.407193000000007</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>383</v>
+      </c>
+      <c r="C240" t="s">
+        <v>307</v>
+      </c>
+      <c r="D240">
+        <v>38.372438000000002</v>
+      </c>
+      <c r="E240">
+        <v>-93.802057300000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>383</v>
+      </c>
+      <c r="C241" t="s">
+        <v>308</v>
+      </c>
+      <c r="D241">
+        <v>46.772078399999998</v>
+      </c>
+      <c r="E241">
+        <v>-113.7631513</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>383</v>
+      </c>
+      <c r="C242" t="s">
+        <v>309</v>
+      </c>
+      <c r="D242">
+        <v>42.759371999999999</v>
+      </c>
+      <c r="E242">
+        <v>-102.3551733</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>383</v>
+      </c>
+      <c r="C243" t="s">
+        <v>310</v>
+      </c>
+      <c r="D243">
+        <v>40.6347886</v>
+      </c>
+      <c r="E243">
+        <v>-74.931768000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>383</v>
+      </c>
+      <c r="C244" t="s">
+        <v>311</v>
+      </c>
+      <c r="D244">
+        <v>40.6347886</v>
+      </c>
+      <c r="E244">
+        <v>-74.931768000000005</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>383</v>
+      </c>
+      <c r="C245" t="s">
+        <v>312</v>
+      </c>
+      <c r="D245">
+        <v>44.944399799999999</v>
+      </c>
+      <c r="E245">
+        <v>-74.056461299999995</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>383</v>
+      </c>
+      <c r="C246" t="s">
+        <v>313</v>
+      </c>
+      <c r="D246">
+        <v>43.050048400000001</v>
+      </c>
+      <c r="E246">
+        <v>-75.396178699999993</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>383</v>
+      </c>
+      <c r="C247" t="s">
+        <v>314</v>
+      </c>
+      <c r="D247">
+        <v>35.000608499999998</v>
+      </c>
+      <c r="E247">
+        <v>-78.406054499999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>383</v>
+      </c>
+      <c r="C248" t="s">
+        <v>315</v>
+      </c>
+      <c r="D248">
+        <v>40.928308000000001</v>
+      </c>
+      <c r="E248">
+        <v>-81.647757499999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>383</v>
+      </c>
+      <c r="C249" t="s">
+        <v>316</v>
+      </c>
+      <c r="D249">
+        <v>41.509627299999998</v>
+      </c>
+      <c r="E249">
+        <v>-82.970806199999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>383</v>
+      </c>
+      <c r="C250" t="s">
+        <v>317</v>
+      </c>
+      <c r="D250">
+        <v>35.501451000000003</v>
+      </c>
+      <c r="E250">
+        <v>-99.095210600000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>383</v>
+      </c>
+      <c r="C251" t="s">
+        <v>318</v>
+      </c>
+      <c r="D251">
+        <v>34.484655600000004</v>
+      </c>
+      <c r="E251">
+        <v>-81.936720100000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>383</v>
+      </c>
+      <c r="C252" t="s">
+        <v>319</v>
+      </c>
+      <c r="D252">
+        <v>36.114639199999999</v>
+      </c>
+      <c r="E252">
+        <v>-84.191988600000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>383</v>
+      </c>
+      <c r="C253" t="s">
+        <v>320</v>
+      </c>
+      <c r="D253">
+        <v>41.135377800000001</v>
+      </c>
+      <c r="E253">
+        <v>-112.1060698</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>383</v>
+      </c>
+      <c r="C254" t="s">
+        <v>321</v>
+      </c>
+      <c r="D254">
+        <v>47.97578</v>
+      </c>
+      <c r="E254">
+        <v>-122.3837388</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>383</v>
+      </c>
+      <c r="C255" t="s">
+        <v>322</v>
+      </c>
+      <c r="D255">
+        <v>42.556227200000002</v>
+      </c>
+      <c r="E255">
+        <v>-88.884231499999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>384</v>
+      </c>
+      <c r="C256" t="s">
+        <v>323</v>
+      </c>
+      <c r="D256">
+        <v>35.126903200000001</v>
+      </c>
+      <c r="E256">
+        <v>-91.463052200000007</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>384</v>
+      </c>
+      <c r="C257" t="s">
+        <v>324</v>
+      </c>
+      <c r="D257">
+        <v>35.126903200000001</v>
+      </c>
+      <c r="E257">
+        <v>-91.463052200000007</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>384</v>
+      </c>
+      <c r="C258" t="s">
+        <v>325</v>
+      </c>
+      <c r="D258">
+        <v>39.717838100000002</v>
+      </c>
+      <c r="E258">
+        <v>-105.70453379999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>384</v>
+      </c>
+      <c r="C259" t="s">
+        <v>326</v>
+      </c>
+      <c r="D259">
+        <v>41.248992700000002</v>
+      </c>
+      <c r="E259">
+        <v>-73.470384800000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>384</v>
+      </c>
+      <c r="C260" t="s">
+        <v>327</v>
+      </c>
+      <c r="D260">
+        <v>41.248992700000002</v>
+      </c>
+      <c r="E260">
+        <v>-73.470384800000005</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>384</v>
+      </c>
+      <c r="C261" t="s">
+        <v>328</v>
+      </c>
+      <c r="D261">
+        <v>31.978056800000001</v>
+      </c>
+      <c r="E261">
+        <v>-81.295963599999993</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>384</v>
+      </c>
+      <c r="C262" t="s">
+        <v>329</v>
+      </c>
+      <c r="D262">
+        <v>31.885163599999998</v>
+      </c>
+      <c r="E262">
+        <v>-85.1422448</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>384</v>
+      </c>
+      <c r="C263" t="s">
+        <v>330</v>
+      </c>
+      <c r="D263">
+        <v>42.478656899999997</v>
+      </c>
+      <c r="E263">
+        <v>-111.3938263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>384</v>
+      </c>
+      <c r="C264" t="s">
+        <v>331</v>
+      </c>
+      <c r="D264">
+        <v>42.478656899999997</v>
+      </c>
+      <c r="E264">
+        <v>-111.3938263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>384</v>
+      </c>
+      <c r="C265" t="s">
+        <v>332</v>
+      </c>
+      <c r="D265">
+        <v>41.230911300000002</v>
+      </c>
+      <c r="E265">
+        <v>-84.8819886</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>384</v>
+      </c>
+      <c r="C266" t="s">
+        <v>333</v>
+      </c>
+      <c r="D266">
+        <v>41.230911300000002</v>
+      </c>
+      <c r="E266">
+        <v>-84.8819886</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>384</v>
+      </c>
+      <c r="C267" t="s">
+        <v>334</v>
+      </c>
+      <c r="D267">
+        <v>40.7392386</v>
+      </c>
+      <c r="E267">
+        <v>-86.523368599999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>384</v>
+      </c>
+      <c r="C268" t="s">
+        <v>335</v>
+      </c>
+      <c r="D268">
+        <v>40.157303599999999</v>
+      </c>
+      <c r="E268">
+        <v>-85.291389100000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>384</v>
+      </c>
+      <c r="C269" t="s">
+        <v>336</v>
+      </c>
+      <c r="D269">
+        <v>38.648361700000002</v>
+      </c>
+      <c r="E269">
+        <v>-86.015839600000007</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>384</v>
+      </c>
+      <c r="C270" t="s">
+        <v>334</v>
+      </c>
+      <c r="D270">
+        <v>38.293912599999999</v>
+      </c>
+      <c r="E270">
+        <v>-86.0028188</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>384</v>
+      </c>
+      <c r="C271" t="s">
+        <v>335</v>
+      </c>
+      <c r="D271">
+        <v>41.730799699999999</v>
+      </c>
+      <c r="E271">
+        <v>-86.235237799999993</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>384</v>
+      </c>
+      <c r="C272" t="s">
+        <v>337</v>
+      </c>
+      <c r="D272">
+        <v>38.227548499999997</v>
+      </c>
+      <c r="E272">
+        <v>-84.623171499999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>384</v>
+      </c>
+      <c r="C273" t="s">
+        <v>338</v>
+      </c>
+      <c r="D273">
+        <v>31.758467199999998</v>
+      </c>
+      <c r="E273">
+        <v>-92.396986600000005</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>384</v>
+      </c>
+      <c r="C274" t="s">
+        <v>339</v>
+      </c>
+      <c r="D274">
+        <v>43.7981695</v>
+      </c>
+      <c r="E274">
+        <v>-69.808805500000005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>384</v>
+      </c>
+      <c r="C275" t="s">
+        <v>340</v>
+      </c>
+      <c r="D275">
+        <v>42.723561199999999</v>
+      </c>
+      <c r="E275">
+        <v>-71.048837500000005</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>384</v>
+      </c>
+      <c r="C276" t="s">
+        <v>341</v>
+      </c>
+      <c r="D276">
+        <v>42.9071353</v>
+      </c>
+      <c r="E276">
+        <v>-85.913000400000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>384</v>
+      </c>
+      <c r="C277" t="s">
+        <v>343</v>
+      </c>
+      <c r="D277">
+        <v>47.078456299999999</v>
+      </c>
+      <c r="E277">
+        <v>-96.813476600000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>384</v>
+      </c>
+      <c r="C278" t="s">
+        <v>344</v>
+      </c>
+      <c r="D278">
+        <v>31.869476899999999</v>
+      </c>
+      <c r="E278">
+        <v>-90.172819200000006</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>384</v>
+      </c>
+      <c r="C279" t="s">
+        <v>345</v>
+      </c>
+      <c r="D279">
+        <v>42.768430100000003</v>
+      </c>
+      <c r="E279">
+        <v>-75.754086299999997</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>384</v>
+      </c>
+      <c r="C280" t="s">
+        <v>346</v>
+      </c>
+      <c r="D280">
+        <v>38.871123599999997</v>
+      </c>
+      <c r="E280">
+        <v>-83.933193799999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>384</v>
+      </c>
+      <c r="C281" t="s">
+        <v>347</v>
+      </c>
+      <c r="D281">
+        <v>40.641467499999997</v>
+      </c>
+      <c r="E281">
+        <v>-80.509266699999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>384</v>
+      </c>
+      <c r="C282" t="s">
+        <v>348</v>
+      </c>
+      <c r="D282">
+        <v>33.356432699999999</v>
+      </c>
+      <c r="E282">
+        <v>-79.329898799999995</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>384</v>
+      </c>
+      <c r="C283" t="s">
+        <v>349</v>
+      </c>
+      <c r="D283">
+        <v>35.288375199999997</v>
+      </c>
+      <c r="E283">
+        <v>-84.961781000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>384</v>
+      </c>
+      <c r="C284" t="s">
+        <v>350</v>
+      </c>
+      <c r="D284">
+        <v>30.656886199999999</v>
+      </c>
+      <c r="E284">
+        <v>-97.849032500000007</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>384</v>
+      </c>
+      <c r="C285" t="s">
+        <v>351</v>
+      </c>
+      <c r="D285">
+        <v>38.909221299999999</v>
+      </c>
+      <c r="E285">
+        <v>-77.0822474</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>385</v>
+      </c>
+      <c r="C286" t="s">
+        <v>353</v>
+      </c>
+      <c r="D286">
+        <v>34.2473302</v>
+      </c>
+      <c r="E286">
+        <v>-86.704476</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>385</v>
+      </c>
+      <c r="C287" t="s">
+        <v>354</v>
+      </c>
+      <c r="D287">
+        <v>37.675721199999998</v>
+      </c>
+      <c r="E287">
+        <v>-122.0833772</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>385</v>
+      </c>
+      <c r="C288" t="s">
+        <v>355</v>
+      </c>
+      <c r="D288">
+        <v>34.924653900000003</v>
+      </c>
+      <c r="E288">
+        <v>-85.327692799999994</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>385</v>
+      </c>
+      <c r="C289" t="s">
+        <v>356</v>
+      </c>
+      <c r="D289">
+        <v>40.648178799999997</v>
+      </c>
+      <c r="E289">
+        <v>-90.221919799999995</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>385</v>
+      </c>
+      <c r="C290" t="s">
+        <v>357</v>
+      </c>
+      <c r="D290">
+        <v>39.680875200000003</v>
+      </c>
+      <c r="E290">
+        <v>-87.432105500000006</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>385</v>
+      </c>
+      <c r="C291" t="s">
+        <v>358</v>
+      </c>
+      <c r="D291">
+        <v>39.839366099999999</v>
+      </c>
+      <c r="E291">
+        <v>-95.735136100000005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>385</v>
+      </c>
+      <c r="C292" t="s">
+        <v>359</v>
+      </c>
+      <c r="D292">
+        <v>36.843409700000002</v>
+      </c>
+      <c r="E292">
+        <v>-87.321402199999994</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>385</v>
+      </c>
+      <c r="C293" t="s">
+        <v>360</v>
+      </c>
+      <c r="D293">
+        <v>38.9981443</v>
+      </c>
+      <c r="E293">
+        <v>-84.493596299999993</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>385</v>
+      </c>
+      <c r="C294" t="s">
+        <v>361</v>
+      </c>
+      <c r="D294">
+        <v>39.581141199999998</v>
+      </c>
+      <c r="E294">
+        <v>-76.439179600000003</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>385</v>
+      </c>
+      <c r="C295" t="s">
+        <v>362</v>
+      </c>
+      <c r="D295">
+        <v>44.725214100000002</v>
+      </c>
+      <c r="E295">
+        <v>-84.085639999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>385</v>
+      </c>
+      <c r="C296" t="s">
+        <v>363</v>
+      </c>
+      <c r="D296">
+        <v>36.817587500000002</v>
+      </c>
+      <c r="E296">
+        <v>-94.103383500000007</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>385</v>
+      </c>
+      <c r="C297" t="s">
+        <v>364</v>
+      </c>
+      <c r="D297">
+        <v>47.851123000000001</v>
+      </c>
+      <c r="E297">
+        <v>-104.0707831</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>385</v>
+      </c>
+      <c r="C298" t="s">
+        <v>365</v>
+      </c>
+      <c r="D298">
+        <v>40.817621600000003</v>
+      </c>
+      <c r="E298">
+        <v>-74.019721000000004</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>385</v>
+      </c>
+      <c r="C299" t="s">
+        <v>366</v>
+      </c>
+      <c r="D299">
+        <v>40.364668299999998</v>
+      </c>
+      <c r="E299">
+        <v>-74.099731599999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>385</v>
+      </c>
+      <c r="C300" t="s">
+        <v>367</v>
+      </c>
+      <c r="D300">
+        <v>41.731949700000001</v>
+      </c>
+      <c r="E300">
+        <v>-73.948044300000007</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>385</v>
+      </c>
+      <c r="C301" t="s">
+        <v>368</v>
+      </c>
+      <c r="D301">
+        <v>41.043905000000002</v>
+      </c>
+      <c r="E301">
+        <v>-73.813598099999993</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>385</v>
+      </c>
+      <c r="C302" t="s">
+        <v>369</v>
+      </c>
+      <c r="D302">
+        <v>35.522460199999998</v>
+      </c>
+      <c r="E302">
+        <v>-82.435012900000004</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>385</v>
+      </c>
+      <c r="C303" t="s">
+        <v>370</v>
+      </c>
+      <c r="D303">
+        <v>40.057579500000003</v>
+      </c>
+      <c r="E303">
+        <v>-81.2436407</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>385</v>
+      </c>
+      <c r="C304" t="s">
+        <v>371</v>
+      </c>
+      <c r="D304">
+        <v>36.267730999999998</v>
+      </c>
+      <c r="E304">
+        <v>-98.508965200000006</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>385</v>
+      </c>
+      <c r="C305" t="s">
+        <v>372</v>
+      </c>
+      <c r="D305">
+        <v>45.546844399999998</v>
+      </c>
+      <c r="E305">
+        <v>-122.4732911</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>385</v>
+      </c>
+      <c r="C306" t="s">
+        <v>373</v>
+      </c>
+      <c r="D306">
+        <v>42.027522900000001</v>
+      </c>
+      <c r="E306">
+        <v>-80.292610300000007</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>385</v>
+      </c>
+      <c r="C307" t="s">
+        <v>374</v>
+      </c>
+      <c r="D307">
+        <v>43.222179699999998</v>
+      </c>
+      <c r="E307">
+        <v>-96.491274300000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>385</v>
+      </c>
+      <c r="C308" t="s">
+        <v>376</v>
+      </c>
+      <c r="D308">
+        <v>35.9932011</v>
+      </c>
+      <c r="E308">
+        <v>-87.193102100000004</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>385</v>
+      </c>
+      <c r="C309" t="s">
+        <v>377</v>
+      </c>
+      <c r="D309">
+        <v>33.1420046</v>
+      </c>
+      <c r="E309">
+        <v>-96.688107099999996</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>385</v>
+      </c>
+      <c r="C310" t="s">
+        <v>378</v>
+      </c>
+      <c r="D310">
+        <v>39.629386199999999</v>
+      </c>
+      <c r="E310">
+        <v>-111.4544786</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>385</v>
+      </c>
+      <c r="C311" t="s">
+        <v>379</v>
+      </c>
+      <c r="D311">
+        <v>39.592540200000002</v>
+      </c>
+      <c r="E311">
+        <v>-80.256415700000005</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>385</v>
+      </c>
+      <c r="C312" t="s">
+        <v>380</v>
+      </c>
+      <c r="D312">
+        <v>39.539836999999999</v>
+      </c>
+      <c r="E312">
+        <v>-80.567323299999998</v>
       </c>
     </row>
   </sheetData>
@@ -3749,8 +7342,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4143,8 +7736,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4634,12 +8227,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="C18:D18"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4888,16 +8481,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18">
-        <v>39.364565599999999</v>
+        <v>42.357877500000001</v>
       </c>
       <c r="D18">
-        <v>-76.673053100000004</v>
+        <v>-73.291470599999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4908,10 +8501,10 @@
         <v>99</v>
       </c>
       <c r="C19">
-        <v>42.357877500000001</v>
+        <v>42.102338500000002</v>
       </c>
       <c r="D19">
-        <v>-73.291470599999997</v>
+        <v>-73.534115900000003</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4922,10 +8515,10 @@
         <v>99</v>
       </c>
       <c r="C20">
-        <v>42.102338500000002</v>
+        <v>42.757958100000003</v>
       </c>
       <c r="D20">
-        <v>-73.534115900000003</v>
+        <v>-83.108209500000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4933,13 +8526,13 @@
         <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C21">
-        <v>42.757958100000003</v>
+        <v>31.578812200000002</v>
       </c>
       <c r="D21">
-        <v>-83.108209500000001</v>
+        <v>-91.316788000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4947,13 +8540,13 @@
         <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C22">
-        <v>31.578812200000002</v>
+        <v>38.555789300000001</v>
       </c>
       <c r="D22">
-        <v>-91.316788000000003</v>
+        <v>-91.088746</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4961,13 +8554,13 @@
         <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C23">
-        <v>38.555789300000001</v>
+        <v>41.397600699999998</v>
       </c>
       <c r="D23">
-        <v>-91.088746</v>
+        <v>-96.215670299999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4975,13 +8568,13 @@
         <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C24">
-        <v>41.397600699999998</v>
+        <v>43.192090299999997</v>
       </c>
       <c r="D24">
-        <v>-96.215670299999999</v>
+        <v>-72.233808100000005</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4989,27 +8582,27 @@
         <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C25">
-        <v>43.192090299999997</v>
+        <v>40.7566202</v>
       </c>
       <c r="D25">
-        <v>-72.233808100000005</v>
+        <v>-74.998253099999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C26">
-        <v>40.7566202</v>
+        <v>41.7907364</v>
       </c>
       <c r="D26">
-        <v>-74.998253099999999</v>
+        <v>-73.812307500000003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5017,13 +8610,13 @@
         <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C27">
-        <v>41.7907364</v>
+        <v>40.842541400000002</v>
       </c>
       <c r="D27">
-        <v>-73.812307500000003</v>
+        <v>-73.707977299999996</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5034,10 +8627,10 @@
         <v>88</v>
       </c>
       <c r="C28">
-        <v>40.842541400000002</v>
+        <v>41.429765000000003</v>
       </c>
       <c r="D28">
-        <v>-73.707977299999996</v>
+        <v>-74.189335799999995</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5045,13 +8638,13 @@
         <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C29">
-        <v>41.429765000000003</v>
+        <v>35.568474000000002</v>
       </c>
       <c r="D29">
-        <v>-74.189335799999995</v>
+        <v>-77.117557500000004</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5059,13 +8652,13 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C30">
-        <v>35.568474000000002</v>
+        <v>35.532048000000003</v>
       </c>
       <c r="D30">
-        <v>-77.117557500000004</v>
+        <v>-77.040735799999993</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5073,13 +8666,13 @@
         <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C31">
-        <v>35.532048000000003</v>
+        <v>39.430656800000001</v>
       </c>
       <c r="D31">
-        <v>-77.040735799999993</v>
+        <v>-82.005637300000004</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5087,13 +8680,13 @@
         <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C32">
-        <v>39.430656800000001</v>
+        <v>40.326282900000002</v>
       </c>
       <c r="D32">
-        <v>-82.005637300000004</v>
+        <v>-81.535994500000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5104,10 +8697,10 @@
         <v>88</v>
       </c>
       <c r="C33">
-        <v>40.326282900000002</v>
+        <v>40.038196900000003</v>
       </c>
       <c r="D33">
-        <v>-81.535994500000001</v>
+        <v>-81.461597499999996</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5118,10 +8711,10 @@
         <v>88</v>
       </c>
       <c r="C34">
-        <v>40.038196900000003</v>
+        <v>40.900441100000002</v>
       </c>
       <c r="D34">
-        <v>-81.461597499999996</v>
+        <v>-80.784032600000003</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5129,13 +8722,13 @@
         <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C35">
-        <v>40.900441100000002</v>
+        <v>39.538975800000003</v>
       </c>
       <c r="D35">
-        <v>-80.784032600000003</v>
+        <v>-83.500741599999998</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5143,13 +8736,13 @@
         <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C36">
-        <v>39.538975800000003</v>
+        <v>35.059153899999998</v>
       </c>
       <c r="D36">
-        <v>-83.500741599999998</v>
+        <v>-97.508752000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5157,13 +8750,13 @@
         <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C37">
-        <v>35.059153899999998</v>
+        <v>40.1764267</v>
       </c>
       <c r="D37">
-        <v>-97.508752000000001</v>
+        <v>-80.277425300000004</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5171,13 +8764,13 @@
         <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C38">
-        <v>40.1764267</v>
+        <v>30.327655799999999</v>
       </c>
       <c r="D38">
-        <v>-80.277425300000004</v>
+        <v>-96.180366100000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5185,13 +8778,13 @@
         <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C39">
-        <v>30.327655799999999</v>
+        <v>37.118225600000002</v>
       </c>
       <c r="D39">
-        <v>-96.180366100000001</v>
+        <v>-113.5491933</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5202,10 +8795,10 @@
         <v>82</v>
       </c>
       <c r="C40">
-        <v>37.118225600000002</v>
+        <v>41.1692003</v>
       </c>
       <c r="D40">
-        <v>-113.5491933</v>
+        <v>-111.9965825</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5213,13 +8806,13 @@
         <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C41">
-        <v>41.1692003</v>
+        <v>44.070885400000002</v>
       </c>
       <c r="D41">
-        <v>-111.9965825</v>
+        <v>-72.495182799999995</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5230,10 +8823,10 @@
         <v>99</v>
       </c>
       <c r="C42">
-        <v>44.070885400000002</v>
+        <v>38.711931800000002</v>
       </c>
       <c r="D42">
-        <v>-72.495182799999995</v>
+        <v>-78.168496099999999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5241,27 +8834,27 @@
         <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C43">
-        <v>38.711931800000002</v>
+        <v>39.242644200000001</v>
       </c>
       <c r="D43">
-        <v>-78.168496099999999</v>
+        <v>-81.703310799999997</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C44">
-        <v>39.242644200000001</v>
+        <v>44.749245700000003</v>
       </c>
       <c r="D44">
-        <v>-81.703310799999997</v>
+        <v>-91.567474399999995</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5269,26 +8862,12 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C45">
-        <v>44.749245700000003</v>
+        <v>43.388039999999997</v>
       </c>
       <c r="D45">
-        <v>-91.567474399999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46">
-        <v>43.388039999999997</v>
-      </c>
-      <c r="D46">
         <v>-87.921270800000002</v>
       </c>
     </row>
@@ -5297,12 +8876,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5327,7 +8906,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -5341,7 +8920,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -5355,7 +8934,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -5369,7 +8948,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -5383,7 +8962,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -5397,7 +8976,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -5411,7 +8990,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -5425,7 +9004,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -5439,7 +9018,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -5453,7 +9032,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -5467,7 +9046,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -5481,7 +9060,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
@@ -5495,7 +9074,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -5509,7 +9088,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
@@ -5523,7 +9102,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -5537,7 +9116,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -5551,7 +9130,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -5565,7 +9144,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -5579,10 +9158,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20">
         <v>41.111682899999998</v>
@@ -5593,10 +9172,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" t="s">
         <v>153</v>
-      </c>
-      <c r="B21" t="s">
-        <v>154</v>
       </c>
       <c r="C21">
         <v>39.588898999999998</v>
@@ -5607,10 +9186,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>40.567524800000001</v>
@@ -5621,10 +9200,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23">
         <v>40.464654600000003</v>
@@ -5635,10 +9214,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24">
         <v>40.464654600000003</v>
@@ -5649,7 +9228,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
@@ -5663,7 +9242,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
         <v>99</v>
@@ -5677,7 +9256,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
         <v>99</v>
@@ -5691,7 +9270,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
         <v>99</v>
@@ -5705,7 +9284,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
@@ -5719,10 +9298,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30">
         <v>40.343397299999999</v>
@@ -5733,7 +9312,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
         <v>82</v>
@@ -5747,7 +9326,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
@@ -5761,7 +9340,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s">
         <v>82</v>
@@ -5775,7 +9354,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -5789,7 +9368,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
@@ -5803,7 +9382,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
         <v>82</v>
@@ -5817,7 +9396,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
         <v>99</v>
@@ -5831,7 +9410,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
         <v>82</v>
@@ -5848,37 +9427,1471 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33807111-5E6C-456D-B962-B6C224325ECC}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>176</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>32.063441500000003</v>
+      </c>
+      <c r="D2">
+        <v>-87.603796299999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>33.336039599999999</v>
+      </c>
+      <c r="D3">
+        <v>-112.7934966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4">
+        <v>33.922769899999999</v>
+      </c>
+      <c r="D4">
+        <v>-117.46910200000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>38.336146599999999</v>
+      </c>
+      <c r="D5">
+        <v>-103.3607761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>31.438331900000001</v>
+      </c>
+      <c r="D6">
+        <v>-84.742841499999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>42.086197499999997</v>
+      </c>
+      <c r="D7">
+        <v>-88.053561299999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>39.183967299999999</v>
+      </c>
+      <c r="D8">
+        <v>-86.567507300000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>39.644154700000001</v>
+      </c>
+      <c r="D9">
+        <v>-85.598854000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>42.748821100000001</v>
+      </c>
+      <c r="D10">
+        <v>-91.688614000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>37.895666499999997</v>
+      </c>
+      <c r="D11">
+        <v>-98.193769000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <v>36.790083099999997</v>
+      </c>
+      <c r="D12">
+        <v>-89.027519600000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>42.416942499999998</v>
+      </c>
+      <c r="D13">
+        <v>-71.202514300000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14">
+        <v>42.288129599999998</v>
+      </c>
+      <c r="D14">
+        <v>-86.121649000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <v>44.608166199999999</v>
+      </c>
+      <c r="D15">
+        <v>-94.094314499999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>37.9203501</v>
+      </c>
+      <c r="D16">
+        <v>-91.988505399999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>41.454720700000003</v>
+      </c>
+      <c r="D17">
+        <v>-96.375621100000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18">
+        <v>40.777452799999999</v>
+      </c>
+      <c r="D18">
+        <v>-74.155520600000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19">
+        <v>41.694000699999997</v>
+      </c>
+      <c r="D19">
+        <v>-73.920920300000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>40.632356399999999</v>
+      </c>
+      <c r="D20">
+        <v>-74.182653299999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21">
+        <v>36.227389600000002</v>
+      </c>
+      <c r="D21">
+        <v>-80.850913300000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>40.896694500000002</v>
+      </c>
+      <c r="D22">
+        <v>-83.670503499999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>39.866473399999997</v>
+      </c>
+      <c r="D23">
+        <v>-84.442180100000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>45.722364599999999</v>
+      </c>
+      <c r="D24">
+        <v>-120.22392019999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>44.3640598</v>
+      </c>
+      <c r="D25">
+        <v>-97.151810100000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26">
+        <v>35.2622334</v>
+      </c>
+      <c r="D26">
+        <v>-89.745343000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>32.702054099999998</v>
+      </c>
+      <c r="D27">
+        <v>-97.275495899999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28">
+        <v>43.074682000000003</v>
+      </c>
+      <c r="D28">
+        <v>-73.272534399999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29">
+        <v>38.880929199999997</v>
+      </c>
+      <c r="D29">
+        <v>-77.172195599999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30">
+        <v>37.226518200000001</v>
+      </c>
+      <c r="D30">
+        <v>-76.020104000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>48.174279200000001</v>
+      </c>
+      <c r="D31">
+        <v>-122.21944329999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>39.308453399999998</v>
+      </c>
+      <c r="D32">
+        <v>-80.364265599999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <v>38.8012856</v>
+      </c>
+      <c r="D33">
+        <v>-80.362358599999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34">
+        <v>43.337733999999998</v>
+      </c>
+      <c r="D34">
+        <v>-89.492141399999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35">
+        <v>43.3361029</v>
+      </c>
+      <c r="D35">
+        <v>-89.390184099999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36">
+        <v>41.594720199999998</v>
+      </c>
+      <c r="D36">
+        <v>-106.22585549999999</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259B860-31B8-47DD-9471-10BE613C1090}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>38.582273899999997</v>
+      </c>
+      <c r="D2">
+        <v>-90.138287300000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>38.200634399999998</v>
+      </c>
+      <c r="D3">
+        <v>-88.183659399999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>40.029134800000001</v>
+      </c>
+      <c r="D4">
+        <v>-80.027965499999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>45.750701599999999</v>
+      </c>
+      <c r="D5">
+        <v>-120.94327920000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>38.844997100000001</v>
+      </c>
+      <c r="D6">
+        <v>-77.510828000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7">
+        <v>44.619246599999997</v>
+      </c>
+      <c r="D7">
+        <v>-72.603735900000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>40.928778999999999</v>
+      </c>
+      <c r="D8">
+        <v>-111.9195148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>44.069991399999999</v>
+      </c>
+      <c r="D9">
+        <v>-91.468767700000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>31.258697399999999</v>
+      </c>
+      <c r="D10">
+        <v>-95.996961499999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>35.802255299999999</v>
+      </c>
+      <c r="D11">
+        <v>-87.534907000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>44.866262499999998</v>
+      </c>
+      <c r="D12">
+        <v>-92.432266600000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13">
+        <v>43.1169309</v>
+      </c>
+      <c r="D13">
+        <v>-96.978603500000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>34.528047700000002</v>
+      </c>
+      <c r="D14">
+        <v>-82.748198900000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>40.123397099999998</v>
+      </c>
+      <c r="D15">
+        <v>-88.513681399999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16">
+        <v>36.184694999999998</v>
+      </c>
+      <c r="D16">
+        <v>-78.118863300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>39.215672699999999</v>
+      </c>
+      <c r="D17">
+        <v>-90.821938200000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>39.632202599999999</v>
+      </c>
+      <c r="D18">
+        <v>-84.2288195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>37.436578599999997</v>
+      </c>
+      <c r="D19">
+        <v>-90.968878099999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20">
+        <v>45.162171100000002</v>
+      </c>
+      <c r="D20">
+        <v>-93.093619799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21">
+        <v>41.6673896</v>
+      </c>
+      <c r="D21">
+        <v>-70.412252699999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <v>43.935907200000003</v>
+      </c>
+      <c r="D22">
+        <v>-87.815267300000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>39.100911000000004</v>
+      </c>
+      <c r="D23">
+        <v>-89.995668699999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>41.064512100000002</v>
+      </c>
+      <c r="D24">
+        <v>-90.071791200000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25">
+        <v>38.220890699999998</v>
+      </c>
+      <c r="D25">
+        <v>-95.031645699999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26">
+        <v>40.730569199999998</v>
+      </c>
+      <c r="D26">
+        <v>-92.901975300000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>39.819544200000003</v>
+      </c>
+      <c r="D27">
+        <v>-85.0094931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28">
+        <v>40.005835599999997</v>
+      </c>
+      <c r="D28">
+        <v>-90.311973600000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <v>32.6387389</v>
+      </c>
+      <c r="D29">
+        <v>-83.719077200000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>38.898055200000002</v>
+      </c>
+      <c r="D30">
+        <v>-82.449910299999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31">
+        <v>39.821531299999997</v>
+      </c>
+      <c r="D31">
+        <v>-75.634105300000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32">
+        <v>41.737496200000002</v>
+      </c>
+      <c r="D32">
+        <v>-79.777011099999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <v>38.929287500000001</v>
+      </c>
+      <c r="D33">
+        <v>-90.589050599999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34">
+        <v>38.223996300000003</v>
+      </c>
+      <c r="D34">
+        <v>-84.408834999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0511F1DB-5CEB-4944-8AF3-AB91D7E05F27}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>35.5764791</v>
+      </c>
+      <c r="D2">
+        <v>-92.495878300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>41.2948047</v>
+      </c>
+      <c r="D3">
+        <v>-72.604904399999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>40.149123299999999</v>
+      </c>
+      <c r="D4">
+        <v>-89.001683299999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>39.663103100000001</v>
+      </c>
+      <c r="D5">
+        <v>-87.430670500000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>41.852208099999999</v>
+      </c>
+      <c r="D6">
+        <v>-90.389296999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>36.664444500000002</v>
+      </c>
+      <c r="D7">
+        <v>-89.011135999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>30.8614502</v>
+      </c>
+      <c r="D8">
+        <v>-91.033106099999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>44.668599999999998</v>
+      </c>
+      <c r="D9">
+        <v>-69.677882400000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10">
+        <v>38.760050900000003</v>
+      </c>
+      <c r="D10">
+        <v>-76.958204499999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>42.413110000000003</v>
+      </c>
+      <c r="D11">
+        <v>-71.726311300000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12">
+        <v>42.585023999999997</v>
+      </c>
+      <c r="D12">
+        <v>-82.984550900000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>42.066381</v>
+      </c>
+      <c r="D13">
+        <v>-83.986469099999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14">
+        <v>45.462826700000001</v>
+      </c>
+      <c r="D14">
+        <v>-96.458803099999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <v>32.347128699999999</v>
+      </c>
+      <c r="D15">
+        <v>-90.407193000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16">
+        <v>38.372438000000002</v>
+      </c>
+      <c r="D16">
+        <v>-93.802057300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17">
+        <v>46.772078399999998</v>
+      </c>
+      <c r="D17">
+        <v>-113.7631513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
+        <v>42.759371999999999</v>
+      </c>
+      <c r="D18">
+        <v>-102.3551733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19">
+        <v>40.6347886</v>
+      </c>
+      <c r="D19">
+        <v>-74.931768000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <v>40.6347886</v>
+      </c>
+      <c r="D20">
+        <v>-74.931768000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21">
+        <v>44.944399799999999</v>
+      </c>
+      <c r="D21">
+        <v>-74.056461299999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>43.050048400000001</v>
+      </c>
+      <c r="D22">
+        <v>-75.396178699999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>35.000608499999998</v>
+      </c>
+      <c r="D23">
+        <v>-78.406054499999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>40.928308000000001</v>
+      </c>
+      <c r="D24">
+        <v>-81.647757499999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>41.509627299999998</v>
+      </c>
+      <c r="D25">
+        <v>-82.970806199999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26">
+        <v>35.501451000000003</v>
+      </c>
+      <c r="D26">
+        <v>-99.095210600000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>34.484655600000004</v>
+      </c>
+      <c r="D27">
+        <v>-81.936720100000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>36.114639199999999</v>
+      </c>
+      <c r="D28">
+        <v>-84.191988600000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <v>41.135377800000001</v>
+      </c>
+      <c r="D29">
+        <v>-112.1060698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30">
+        <v>47.97578</v>
+      </c>
+      <c r="D30">
+        <v>-122.3837388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31">
+        <v>42.556227200000002</v>
+      </c>
+      <c r="D31">
+        <v>-88.884231499999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>